--- a/sofaplayer/La_Liga/Athletic Club_stats.xlsx
+++ b/sofaplayer/La_Liga/Athletic Club_stats.xlsx
@@ -1391,16 +1391,16 @@
         <v>605672</v>
       </c>
       <c r="E3" t="n">
-        <v>6.535</v>
+        <v>6.4952380952381</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" t="n">
-        <v>1295</v>
+        <v>1385</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -1409,22 +1409,22 @@
         <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>6.068</v>
+        <v>6.1442</v>
       </c>
       <c r="L3" t="n">
-        <v>323.75</v>
+        <v>346.25</v>
       </c>
       <c r="M3" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O3" t="n">
         <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>8.510638297872299</v>
+        <v>8.163265306122399</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1457,10 +1457,10 @@
         <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.2827911</v>
+        <v>1.29031663</v>
       </c>
       <c r="AB3" t="n">
-        <v>537</v>
+        <v>559</v>
       </c>
       <c r="AC3" t="n">
         <v>5</v>
@@ -1469,28 +1469,28 @@
         <v>16</v>
       </c>
       <c r="AE3" t="n">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AF3" t="n">
-        <v>72.88135593220299</v>
+        <v>72.875816993464</v>
       </c>
       <c r="AG3" t="n">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="AH3" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI3" t="n">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="AJ3" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AK3" t="n">
         <v>11</v>
       </c>
       <c r="AL3" t="n">
-        <v>64.705882352941</v>
+        <v>61.111111111111</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
@@ -1508,16 +1508,16 @@
         <v>11</v>
       </c>
       <c r="AR3" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AS3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
@@ -1535,37 +1535,37 @@
         <v>25.925925925926</v>
       </c>
       <c r="BA3" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BB3" t="n">
-        <v>40</v>
+        <v>37.727272727273</v>
       </c>
       <c r="BC3" t="n">
         <v>40</v>
       </c>
       <c r="BD3" t="n">
-        <v>40</v>
+        <v>38.095238095238</v>
       </c>
       <c r="BE3" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="BF3" t="n">
-        <v>40</v>
+        <v>37.391304347826</v>
       </c>
       <c r="BG3" t="n">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="BH3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BI3" t="n">
         <v>23</v>
       </c>
       <c r="BJ3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BK3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL3" t="n">
         <v>1</v>
@@ -1577,22 +1577,22 @@
         <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BP3" t="n">
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>130.7</v>
+        <v>136.4</v>
       </c>
       <c r="BR3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS3" t="n">
         <v>5</v>
       </c>
       <c r="BT3" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
@@ -1610,13 +1610,13 @@
         <v>0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="CA3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CB3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CC3" t="n">
         <v>11</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CK3" t="n">
         <v>5</v>
@@ -1670,13 +1670,13 @@
         <v>27</v>
       </c>
       <c r="CT3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CU3" t="n">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="CV3" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="CW3" t="n">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="DA3" t="n">
         <v>3</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="DG3" t="n">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -2459,16 +2459,16 @@
         <v>783374</v>
       </c>
       <c r="E6" t="n">
-        <v>6.6333333333333</v>
+        <v>6.58125</v>
       </c>
       <c r="F6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" t="n">
-        <v>1000</v>
+        <v>1090</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -2477,13 +2477,13 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>3.1914</v>
+        <v>3.2785</v>
       </c>
       <c r="L6" t="n">
-        <v>1000</v>
+        <v>1090</v>
       </c>
       <c r="M6" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N6" t="n">
         <v>11</v>
@@ -2492,7 +2492,7 @@
         <v>5</v>
       </c>
       <c r="P6" t="n">
-        <v>3.2258064516129</v>
+        <v>3.030303030303</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -2525,34 +2525,34 @@
         <v>2</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.27952743</v>
+        <v>1.39183543</v>
       </c>
       <c r="AB6" t="n">
-        <v>415</v>
+        <v>466</v>
       </c>
       <c r="AC6" t="n">
         <v>4</v>
       </c>
       <c r="AD6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="AF6" t="n">
-        <v>72.173913043478</v>
+        <v>71.538461538462</v>
       </c>
       <c r="AG6" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="AH6" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="n">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="AJ6" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK6" t="n">
         <v>6</v>
@@ -2561,10 +2561,10 @@
         <v>50</v>
       </c>
       <c r="AM6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN6" t="n">
-        <v>11.538461538462</v>
+        <v>14.285714285714</v>
       </c>
       <c r="AO6" t="n">
         <v>1</v>
@@ -2573,19 +2573,19 @@
         <v>5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR6" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="AS6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT6" t="n">
         <v>5</v>
       </c>
       <c r="AU6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
@@ -2600,34 +2600,34 @@
         <v>5</v>
       </c>
       <c r="AZ6" t="n">
-        <v>21.739130434783</v>
+        <v>18.518518518519</v>
       </c>
       <c r="BA6" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BB6" t="n">
-        <v>35.955056179775</v>
+        <v>33.009708737864</v>
       </c>
       <c r="BC6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD6" t="n">
-        <v>35.294117647059</v>
+        <v>31.645569620253</v>
       </c>
       <c r="BE6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF6" t="n">
-        <v>38.095238095238</v>
+        <v>37.5</v>
       </c>
       <c r="BG6" t="n">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="BH6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BI6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BJ6" t="n">
         <v>3</v>
@@ -2645,28 +2645,28 @@
         <v>0</v>
       </c>
       <c r="BO6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BP6" t="n">
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>99.5</v>
+        <v>105.3</v>
       </c>
       <c r="BR6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS6" t="n">
         <v>3</v>
       </c>
       <c r="BT6" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BW6" t="n">
         <v>1</v>
@@ -2678,13 +2678,13 @@
         <v>0</v>
       </c>
       <c r="BZ6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CA6" t="n">
         <v>5</v>
       </c>
       <c r="CB6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CC6" t="n">
         <v>5</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="CJ6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CK6" t="n">
         <v>5</v>
@@ -2732,19 +2732,19 @@
         <v>0</v>
       </c>
       <c r="CR6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CS6" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="CT6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CU6" t="n">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="CV6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CW6" t="n">
         <v>0</v>
@@ -2774,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="DG6" t="n">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -2815,43 +2815,43 @@
         <v>966801</v>
       </c>
       <c r="E7" t="n">
-        <v>6.39375</v>
+        <v>6.4117647058824</v>
       </c>
       <c r="F7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" t="n">
-        <v>1063</v>
+        <v>1152</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>3.3279</v>
+        <v>4.2763</v>
       </c>
       <c r="L7" t="n">
-        <v>1063</v>
+        <v>576</v>
       </c>
       <c r="M7" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
         <v>3</v>
       </c>
       <c r="P7" t="n">
-        <v>3.7037037037037</v>
+        <v>6.6666666666667</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
         <v>100</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -2881,10 +2881,10 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.64434808</v>
+        <v>0.66052678</v>
       </c>
       <c r="AB7" t="n">
-        <v>546</v>
+        <v>583</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -2893,22 +2893,22 @@
         <v>16</v>
       </c>
       <c r="AE7" t="n">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="AF7" t="n">
-        <v>81.47138964577699</v>
+        <v>81.17048346056001</v>
       </c>
       <c r="AG7" t="n">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="AH7" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AI7" t="n">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="AJ7" t="n">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AK7" t="n">
         <v>12</v>
@@ -2932,7 +2932,7 @@
         <v>8</v>
       </c>
       <c r="AR7" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AS7" t="n">
         <v>2</v>
@@ -2956,76 +2956,76 @@
         <v>7</v>
       </c>
       <c r="AZ7" t="n">
-        <v>43.75</v>
+        <v>41.176470588235</v>
       </c>
       <c r="BA7" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="BB7" t="n">
-        <v>39.130434782609</v>
+        <v>39.669421487603</v>
       </c>
       <c r="BC7" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BD7" t="n">
-        <v>40.243902439024</v>
+        <v>40</v>
       </c>
       <c r="BE7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BF7" t="n">
-        <v>36.363636363636</v>
+        <v>38.888888888889</v>
       </c>
       <c r="BG7" t="n">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="BH7" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>17</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="n">
         <v>16</v>
       </c>
-      <c r="BI7" t="n">
-        <v>16</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>15</v>
-      </c>
       <c r="BP7" t="n">
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>102.3</v>
+        <v>109</v>
       </c>
       <c r="BR7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BT7" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="BU7" t="n">
         <v>1</v>
       </c>
       <c r="BV7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BW7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BX7" t="n">
         <v>1</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="BZ7" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="CA7" t="n">
         <v>5</v>
@@ -3043,7 +3043,7 @@
         <v>22</v>
       </c>
       <c r="CC7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CD7" t="n">
         <v>11</v>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CK7" t="n">
         <v>2</v>
@@ -3091,16 +3091,16 @@
         <v>16</v>
       </c>
       <c r="CS7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CT7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CU7" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="CV7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CW7" t="n">
         <v>0</v>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="DG7" t="n">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -3527,40 +3527,40 @@
         <v>1495844</v>
       </c>
       <c r="E9" t="n">
-        <v>6.8652173913043</v>
+        <v>6.8958333333333</v>
       </c>
       <c r="F9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H9" t="n">
-        <v>1964</v>
+        <v>2025</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>1.256</v>
+        <v>1.3027</v>
       </c>
       <c r="L9" t="n">
-        <v>1964</v>
+        <v>1012.5</v>
       </c>
       <c r="M9" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>3.7037037037037</v>
+        <v>6.8965517241379</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -3575,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -3593,10 +3593,10 @@
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.87201726</v>
+        <v>1.88489466</v>
       </c>
       <c r="AB9" t="n">
-        <v>1304</v>
+        <v>1345</v>
       </c>
       <c r="AC9" t="n">
         <v>1</v>
@@ -3605,49 +3605,49 @@
         <v>21</v>
       </c>
       <c r="AE9" t="n">
-        <v>786</v>
+        <v>799</v>
       </c>
       <c r="AF9" t="n">
-        <v>82.476390346275</v>
+        <v>81.948717948718</v>
       </c>
       <c r="AG9" t="n">
-        <v>953</v>
+        <v>975</v>
       </c>
       <c r="AH9" t="n">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AI9" t="n">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="AJ9" t="n">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AK9" t="n">
         <v>41</v>
       </c>
       <c r="AL9" t="n">
-        <v>56.164383561644</v>
+        <v>55.405405405405</v>
       </c>
       <c r="AM9" t="n">
         <v>6</v>
       </c>
       <c r="AN9" t="n">
-        <v>12</v>
+        <v>11.764705882353</v>
       </c>
       <c r="AO9" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AP9" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AQ9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR9" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AS9" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AT9" t="n">
         <v>21</v>
@@ -3665,37 +3665,37 @@
         <v>0</v>
       </c>
       <c r="AY9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ9" t="n">
         <v>33.333333333333</v>
       </c>
       <c r="BA9" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="BB9" t="n">
-        <v>48.684210526316</v>
+        <v>48.547717842324</v>
       </c>
       <c r="BC9" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="BD9" t="n">
-        <v>46.892655367232</v>
+        <v>47.058823529412</v>
       </c>
       <c r="BE9" t="n">
+        <v>29</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>53.703703703704</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>295</v>
+      </c>
+      <c r="BH9" t="n">
         <v>28</v>
       </c>
-      <c r="BF9" t="n">
-        <v>54.901960784314</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>281</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>27</v>
-      </c>
       <c r="BI9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BJ9" t="n">
         <v>0</v>
@@ -3713,22 +3713,22 @@
         <v>4</v>
       </c>
       <c r="BO9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BP9" t="n">
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>157.9</v>
+        <v>165.5</v>
       </c>
       <c r="BR9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BT9" t="n">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
@@ -3746,16 +3746,16 @@
         <v>0</v>
       </c>
       <c r="BZ9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CA9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CB9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CC9" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="CD9" t="n">
         <v>34</v>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CK9" t="n">
         <v>8</v>
@@ -3803,16 +3803,16 @@
         <v>21</v>
       </c>
       <c r="CS9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="CT9" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="CU9" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="CV9" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="CW9" t="n">
         <v>0</v>
@@ -3824,13 +3824,13 @@
         <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="DA9" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="DB9" t="n">
-        <v>68</v>
+        <v>67.92452830188699</v>
       </c>
       <c r="DC9" t="n">
         <v>0</v>
@@ -3842,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="DG9" t="n">
-        <v>640</v>
+        <v>655</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -3883,16 +3883,16 @@
         <v>96365</v>
       </c>
       <c r="E10" t="n">
-        <v>7.0380952380952</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H10" t="n">
-        <v>1360</v>
+        <v>1426</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -3901,13 +3901,13 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.584</v>
+        <v>0.6009</v>
       </c>
       <c r="L10" t="n">
-        <v>1360</v>
+        <v>1426</v>
       </c>
       <c r="M10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N10" t="n">
         <v>2</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>7.1428571428571</v>
+        <v>6.6666666666667</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -3949,67 +3949,67 @@
         <v>1</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.35677767</v>
+        <v>1.44550297</v>
       </c>
       <c r="AB10" t="n">
-        <v>1006</v>
+        <v>1056</v>
       </c>
       <c r="AC10" t="n">
         <v>2</v>
       </c>
       <c r="AD10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE10" t="n">
-        <v>632</v>
+        <v>666</v>
       </c>
       <c r="AF10" t="n">
-        <v>83.48745046235101</v>
+        <v>83.668341708543</v>
       </c>
       <c r="AG10" t="n">
-        <v>757</v>
+        <v>796</v>
       </c>
       <c r="AH10" t="n">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="AI10" t="n">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="AJ10" t="n">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="AK10" t="n">
         <v>44</v>
       </c>
       <c r="AL10" t="n">
-        <v>51.764705882353</v>
+        <v>51.162790697674</v>
       </c>
       <c r="AM10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN10" t="n">
-        <v>20.833333333333</v>
+        <v>24</v>
       </c>
       <c r="AO10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP10" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ10" t="n">
         <v>16</v>
       </c>
       <c r="AR10" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AS10" t="n">
         <v>14</v>
       </c>
       <c r="AT10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV10" t="n">
         <v>1</v>
@@ -4027,28 +4027,28 @@
         <v>78.125</v>
       </c>
       <c r="BA10" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="BB10" t="n">
-        <v>56.842105263158</v>
+        <v>55.276381909548</v>
       </c>
       <c r="BC10" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BD10" t="n">
-        <v>55.828220858896</v>
+        <v>54.761904761905</v>
       </c>
       <c r="BE10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BF10" t="n">
-        <v>62.962962962963</v>
+        <v>58.064516129032</v>
       </c>
       <c r="BG10" t="n">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="BH10" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="BI10" t="n">
         <v>26</v>
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BL10" t="n">
         <v>0</v>
@@ -4069,22 +4069,22 @@
         <v>0</v>
       </c>
       <c r="BO10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BP10" t="n">
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>147.8</v>
+        <v>154</v>
       </c>
       <c r="BR10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS10" t="n">
         <v>2</v>
       </c>
       <c r="BT10" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -4105,16 +4105,16 @@
         <v>4</v>
       </c>
       <c r="CA10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CB10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CC10" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="CD10" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="CE10" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CK10" t="n">
         <v>6</v>
@@ -4156,37 +4156,37 @@
         <v>0</v>
       </c>
       <c r="CR10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CS10" t="n">
         <v>32</v>
       </c>
       <c r="CT10" t="n">
+        <v>25</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>89</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>13</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>86</v>
+      </c>
+      <c r="DA10" t="n">
         <v>24</v>
       </c>
-      <c r="CU10" t="n">
-        <v>82</v>
-      </c>
-      <c r="CV10" t="n">
-        <v>10</v>
-      </c>
-      <c r="CW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ10" t="n">
-        <v>85</v>
-      </c>
-      <c r="DA10" t="n">
-        <v>23</v>
-      </c>
       <c r="DB10" t="n">
-        <v>57.5</v>
+        <v>58.536585365854</v>
       </c>
       <c r="DC10" t="n">
         <v>0</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="DG10" t="n">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4239,16 +4239,16 @@
         <v>944165</v>
       </c>
       <c r="E11" t="n">
-        <v>6.7157894736842</v>
+        <v>6.695</v>
       </c>
       <c r="F11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
         <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>707</v>
+        <v>752</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -4260,7 +4260,7 @@
         <v>3.3778</v>
       </c>
       <c r="L11" t="n">
-        <v>141.4</v>
+        <v>150.4</v>
       </c>
       <c r="M11" t="n">
         <v>13</v>
@@ -4305,34 +4305,34 @@
         <v>1</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.27825173</v>
+        <v>1.29036903</v>
       </c>
       <c r="AB11" t="n">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="AC11" t="n">
         <v>3</v>
       </c>
       <c r="AD11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE11" t="n">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AF11" t="n">
-        <v>81.01265822784799</v>
+        <v>80.894308943089</v>
       </c>
       <c r="AG11" t="n">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="AH11" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI11" t="n">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AJ11" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AK11" t="n">
         <v>3</v>
@@ -4344,19 +4344,19 @@
         <v>5</v>
       </c>
       <c r="AN11" t="n">
-        <v>13.513513513514</v>
+        <v>13.157894736842</v>
       </c>
       <c r="AO11" t="n">
         <v>4</v>
       </c>
       <c r="AP11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ11" t="n">
         <v>4</v>
       </c>
       <c r="AR11" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -4380,16 +4380,16 @@
         <v>11</v>
       </c>
       <c r="AZ11" t="n">
-        <v>42.307692307692</v>
+        <v>40.740740740741</v>
       </c>
       <c r="BA11" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BB11" t="n">
-        <v>35.514018691589</v>
+        <v>35.087719298246</v>
       </c>
       <c r="BC11" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BD11" t="n">
         <v>40</v>
@@ -4398,13 +4398,13 @@
         <v>6</v>
       </c>
       <c r="BF11" t="n">
-        <v>22.222222222222</v>
+        <v>20.689655172414</v>
       </c>
       <c r="BG11" t="n">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="BH11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BI11" t="n">
         <v>14</v>
@@ -4431,16 +4431,16 @@
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>127.6</v>
+        <v>133.9</v>
       </c>
       <c r="BR11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS11" t="n">
         <v>6</v>
       </c>
       <c r="BT11" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
@@ -4464,7 +4464,7 @@
         <v>2</v>
       </c>
       <c r="CB11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CC11" t="n">
         <v>15</v>
@@ -4512,19 +4512,19 @@
         <v>0</v>
       </c>
       <c r="CR11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CS11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CT11" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="CU11" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="CV11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="CW11" t="n">
         <v>0</v>
@@ -4539,10 +4539,10 @@
         <v>5</v>
       </c>
       <c r="DA11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DB11" t="n">
-        <v>57.142857142857</v>
+        <v>55.555555555556</v>
       </c>
       <c r="DC11" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="DG11" t="n">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
@@ -4598,13 +4598,13 @@
         <v>6.6066666666667</v>
       </c>
       <c r="F12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G12" t="n">
         <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -4616,7 +4616,7 @@
         <v>1.343</v>
       </c>
       <c r="L12" t="n">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M12" t="n">
         <v>10</v>
@@ -4661,10 +4661,10 @@
         <v>1</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.55403936</v>
+        <v>0.55572172</v>
       </c>
       <c r="AB12" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -4673,22 +4673,22 @@
         <v>5</v>
       </c>
       <c r="AE12" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF12" t="n">
-        <v>75.384615384615</v>
+        <v>75.572519083969</v>
       </c>
       <c r="AG12" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AH12" t="n">
         <v>29</v>
       </c>
       <c r="AI12" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ12" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK12" t="n">
         <v>4</v>
@@ -4742,7 +4742,7 @@
         <v>21</v>
       </c>
       <c r="BB12" t="n">
-        <v>38.888888888889</v>
+        <v>38.181818181818</v>
       </c>
       <c r="BC12" t="n">
         <v>13</v>
@@ -4754,7 +4754,7 @@
         <v>8</v>
       </c>
       <c r="BF12" t="n">
-        <v>32</v>
+        <v>30.769230769231</v>
       </c>
       <c r="BG12" t="n">
         <v>67</v>
@@ -4877,10 +4877,10 @@
         <v>13</v>
       </c>
       <c r="CU12" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CV12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CW12" t="n">
         <v>0</v>
@@ -4913,7 +4913,7 @@
         <v>35</v>
       </c>
       <c r="DG12" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
@@ -5307,16 +5307,16 @@
         <v>2110897</v>
       </c>
       <c r="E14" t="n">
-        <v>6.7066666666667</v>
+        <v>6.7</v>
       </c>
       <c r="F14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G14" t="n">
         <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>497</v>
+        <v>526</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -5328,7 +5328,7 @@
         <v>0.3483</v>
       </c>
       <c r="L14" t="n">
-        <v>497</v>
+        <v>526</v>
       </c>
       <c r="M14" t="n">
         <v>9</v>
@@ -5373,10 +5373,10 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.24937353</v>
+        <v>0.24951431</v>
       </c>
       <c r="AB14" t="n">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -5385,16 +5385,16 @@
         <v>6</v>
       </c>
       <c r="AE14" t="n">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AF14" t="n">
-        <v>80.321285140562</v>
+        <v>78.92720306513399</v>
       </c>
       <c r="AG14" t="n">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AH14" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AI14" t="n">
         <v>120</v>
@@ -5406,7 +5406,7 @@
         <v>9</v>
       </c>
       <c r="AL14" t="n">
-        <v>60</v>
+        <v>56.25</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
@@ -5415,22 +5415,22 @@
         <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP14" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ14" t="n">
         <v>6</v>
       </c>
       <c r="AR14" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AS14" t="n">
         <v>4</v>
       </c>
       <c r="AT14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU14" t="n">
         <v>5</v>
@@ -5451,28 +5451,28 @@
         <v>40</v>
       </c>
       <c r="BA14" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="BB14" t="n">
         <v>50</v>
       </c>
       <c r="BC14" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BD14" t="n">
-        <v>49.019607843137</v>
+        <v>48.214285714286</v>
       </c>
       <c r="BE14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF14" t="n">
-        <v>54.545454545455</v>
+        <v>58.333333333333</v>
       </c>
       <c r="BG14" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="BH14" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BI14" t="n">
         <v>1</v>
@@ -5481,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="BK14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BL14" t="n">
         <v>0</v>
@@ -5499,16 +5499,16 @@
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>100.6</v>
+        <v>107.2</v>
       </c>
       <c r="BR14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS14" t="n">
         <v>1</v>
       </c>
       <c r="BT14" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="BU14" t="n">
         <v>0</v>
@@ -5535,7 +5535,7 @@
         <v>2</v>
       </c>
       <c r="CC14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CD14" t="n">
         <v>6</v>
@@ -5589,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="CU14" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="CV14" t="n">
         <v>5</v>
@@ -5604,13 +5604,13 @@
         <v>0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="DA14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="DB14" t="n">
-        <v>45.454545454545</v>
+        <v>50</v>
       </c>
       <c r="DC14" t="n">
         <v>0</v>
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="DG14" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
@@ -5663,16 +5663,16 @@
         <v>359742</v>
       </c>
       <c r="E15" t="n">
-        <v>6.5916666666667</v>
+        <v>6.6</v>
       </c>
       <c r="F15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -5729,10 +5729,10 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.12516988</v>
+        <v>0.12657458</v>
       </c>
       <c r="AB15" t="n">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -5741,28 +5741,28 @@
         <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AF15" t="n">
-        <v>78.947368421053</v>
+        <v>77.914110429448</v>
       </c>
       <c r="AG15" t="n">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="AH15" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AI15" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AJ15" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AK15" t="n">
         <v>12</v>
       </c>
       <c r="AL15" t="n">
-        <v>75</v>
+        <v>70.58823529411799</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
@@ -5771,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP15" t="n">
         <v>10</v>
@@ -5780,7 +5780,7 @@
         <v>3</v>
       </c>
       <c r="AR15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AS15" t="n">
         <v>10</v>
@@ -5807,31 +5807,31 @@
         <v>66.666666666667</v>
       </c>
       <c r="BA15" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BB15" t="n">
-        <v>47.916666666667</v>
+        <v>50</v>
       </c>
       <c r="BC15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD15" t="n">
-        <v>48.571428571429</v>
+        <v>50</v>
       </c>
       <c r="BE15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF15" t="n">
-        <v>46.153846153846</v>
+        <v>50</v>
       </c>
       <c r="BG15" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="BH15" t="n">
         <v>5</v>
       </c>
       <c r="BI15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ15" t="n">
         <v>0</v>
@@ -5855,16 +5855,16 @@
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>79.09999999999999</v>
+        <v>85.8</v>
       </c>
       <c r="BR15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BS15" t="n">
         <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
@@ -5960,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DA15" t="n">
         <v>5</v>
@@ -5978,10 +5978,10 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="DG15" t="n">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
@@ -6019,16 +6019,16 @@
         <v>1019318</v>
       </c>
       <c r="E16" t="n">
-        <v>6.6625</v>
+        <v>6.6333333333333</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>266</v>
+        <v>311</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -6037,13 +6037,13 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5763</v>
       </c>
       <c r="L16" t="n">
-        <v>266</v>
+        <v>311</v>
       </c>
       <c r="M16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N16" t="n">
         <v>2</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>8.3333333333333</v>
+        <v>7.6923076923077</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -6085,34 +6085,34 @@
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.59912341</v>
+        <v>0.66226061</v>
       </c>
       <c r="AB16" t="n">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="AC16" t="n">
         <v>1</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AF16" t="n">
-        <v>82.417582417582</v>
+        <v>83.333333333333</v>
       </c>
       <c r="AG16" t="n">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="AH16" t="n">
         <v>15</v>
       </c>
       <c r="AI16" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ16" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AK16" t="n">
         <v>6</v>
@@ -6121,16 +6121,16 @@
         <v>85.71428571428601</v>
       </c>
       <c r="AM16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN16" t="n">
-        <v>27.272727272727</v>
+        <v>26.923076923077</v>
       </c>
       <c r="AO16" t="n">
         <v>2</v>
       </c>
       <c r="AP16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ16" t="n">
         <v>3</v>
@@ -6145,34 +6145,34 @@
         <v>2</v>
       </c>
       <c r="AU16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
         <v>6</v>
       </c>
-      <c r="AV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>5</v>
-      </c>
       <c r="AZ16" t="n">
-        <v>35.714285714286</v>
+        <v>35.294117647059</v>
       </c>
       <c r="BA16" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BB16" t="n">
-        <v>28.888888888889</v>
+        <v>31.372549019608</v>
       </c>
       <c r="BC16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BD16" t="n">
-        <v>30.769230769231</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BE16" t="n">
         <v>1</v>
@@ -6181,46 +6181,46 @@
         <v>16.666666666667</v>
       </c>
       <c r="BG16" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="BH16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BI16" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO16" t="n">
         <v>4</v>
       </c>
-      <c r="BJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO16" t="n">
-        <v>3</v>
-      </c>
       <c r="BP16" t="n">
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>53.3</v>
+        <v>59.7</v>
       </c>
       <c r="BR16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BS16" t="n">
         <v>1</v>
       </c>
       <c r="BT16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
@@ -6238,7 +6238,7 @@
         <v>0</v>
       </c>
       <c r="BZ16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CA16" t="n">
         <v>8</v>
@@ -6268,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CK16" t="n">
         <v>1</v>
@@ -6292,16 +6292,16 @@
         <v>0</v>
       </c>
       <c r="CR16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CS16" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="CT16" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="CU16" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="CV16" t="n">
         <v>5</v>
@@ -6319,7 +6319,7 @@
         <v>7</v>
       </c>
       <c r="DA16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DB16" t="n">
         <v>100</v>
@@ -6334,10 +6334,10 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="DG16" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="DH16" t="n">
         <v>0</v>
@@ -6731,16 +6731,16 @@
         <v>149734</v>
       </c>
       <c r="E18" t="n">
-        <v>7.0333333333333</v>
+        <v>7.0076923076923</v>
       </c>
       <c r="F18" t="n">
+        <v>13</v>
+      </c>
+      <c r="G18" t="n">
         <v>12</v>
       </c>
-      <c r="G18" t="n">
-        <v>11</v>
-      </c>
       <c r="H18" t="n">
-        <v>950</v>
+        <v>1040</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -6797,40 +6797,40 @@
         <v>1</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.14435175</v>
+        <v>0.15172902</v>
       </c>
       <c r="AB18" t="n">
-        <v>738</v>
+        <v>798</v>
       </c>
       <c r="AC18" t="n">
         <v>1</v>
       </c>
       <c r="AD18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE18" t="n">
-        <v>541</v>
+        <v>581</v>
       </c>
       <c r="AF18" t="n">
-        <v>90.01663893510801</v>
+        <v>89.938080495356</v>
       </c>
       <c r="AG18" t="n">
-        <v>601</v>
+        <v>646</v>
       </c>
       <c r="AH18" t="n">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="AI18" t="n">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="AJ18" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AK18" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL18" t="n">
-        <v>61.016949152542</v>
+        <v>58.461538461538</v>
       </c>
       <c r="AM18" t="n">
         <v>0</v>
@@ -6839,22 +6839,22 @@
         <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ18" t="n">
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AS18" t="n">
         <v>5</v>
       </c>
       <c r="AT18" t="n">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="AU18" t="n">
         <v>3</v>
@@ -6875,28 +6875,28 @@
         <v>100</v>
       </c>
       <c r="BA18" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BB18" t="n">
-        <v>68.354430379747</v>
+        <v>68.674698795181</v>
       </c>
       <c r="BC18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BD18" t="n">
-        <v>64</v>
+        <v>64.28571428571399</v>
       </c>
       <c r="BE18" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BF18" t="n">
-        <v>70.37037037037</v>
+        <v>70.90909090909101</v>
       </c>
       <c r="BG18" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="BH18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI18" t="n">
         <v>7</v>
@@ -6917,22 +6917,22 @@
         <v>1</v>
       </c>
       <c r="BO18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BP18" t="n">
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>84.40000000000001</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="BR18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BS18" t="n">
         <v>1</v>
       </c>
       <c r="BT18" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
@@ -6959,10 +6959,10 @@
         <v>1</v>
       </c>
       <c r="CC18" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="CD18" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="CE18" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CK18" t="n">
         <v>4</v>
@@ -7004,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="CR18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CS18" t="n">
         <v>1</v>
@@ -7013,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="CU18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CV18" t="n">
         <v>16</v>
@@ -7028,13 +7028,13 @@
         <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="DA18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DB18" t="n">
-        <v>62.5</v>
+        <v>60</v>
       </c>
       <c r="DC18" t="n">
         <v>0</v>
@@ -7046,10 +7046,10 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="DG18" t="n">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="DH18" t="n">
         <v>4</v>
@@ -7792,47 +7792,47 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Yuri Berchiche</t>
+          <t>Aitor Paredes</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>84531</v>
+        <v>959872</v>
       </c>
       <c r="E21" t="n">
-        <v>6.9</v>
+        <v>6.7705882352941</v>
       </c>
       <c r="F21" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G21" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H21" t="n">
-        <v>1665</v>
+        <v>1449</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3175</v>
+        <v>1.0141</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1449</v>
       </c>
       <c r="M21" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N21" t="n">
         <v>3</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>8.3333333333333</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -7844,13 +7844,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -7862,271 +7862,271 @@
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.48535445</v>
+        <v>0.51088079</v>
       </c>
       <c r="AB21" t="n">
-        <v>1335</v>
+        <v>1030</v>
       </c>
       <c r="AC21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD21" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AE21" t="n">
-        <v>778</v>
+        <v>736</v>
       </c>
       <c r="AF21" t="n">
-        <v>86.830357142857</v>
+        <v>87.10059171597599</v>
       </c>
       <c r="AG21" t="n">
-        <v>896</v>
+        <v>845</v>
       </c>
       <c r="AH21" t="n">
-        <v>353</v>
+        <v>453</v>
       </c>
       <c r="AI21" t="n">
-        <v>425</v>
+        <v>283</v>
       </c>
       <c r="AJ21" t="n">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="AK21" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AL21" t="n">
-        <v>56.451612903226</v>
+        <v>50.442477876106</v>
       </c>
       <c r="AM21" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>21.621621621622</v>
+        <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP21" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="AS21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>70</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>58</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>59.183673469388</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>30</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>56.603773584906</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>28</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>62.222222222222</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>121</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI21" t="n">
         <v>7</v>
       </c>
-      <c r="AT21" t="n">
-        <v>68</v>
-      </c>
-      <c r="AU21" t="n">
+      <c r="BJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN21" t="n">
         <v>3</v>
       </c>
-      <c r="AV21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>93</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>60.38961038961</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>53</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>59.550561797753</v>
-      </c>
-      <c r="BE21" t="n">
+      <c r="BO21" t="n">
+        <v>21</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>115.1</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>17</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>109</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>7</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>9</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>3</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>69</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>38</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>15</v>
+      </c>
+      <c r="CK21" t="n">
+        <v>6</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>3</v>
+      </c>
+      <c r="CS21" t="n">
+        <v>2</v>
+      </c>
+      <c r="CT21" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU21" t="n">
         <v>40</v>
       </c>
-      <c r="BF21" t="n">
-        <v>61.538461538462</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>203</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>16</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>22</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>3</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN21" t="n">
-        <v>5</v>
-      </c>
-      <c r="BO21" t="n">
-        <v>23</v>
-      </c>
-      <c r="BP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ21" t="n">
-        <v>138</v>
-      </c>
-      <c r="BR21" t="n">
-        <v>20</v>
-      </c>
-      <c r="BS21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT21" t="n">
-        <v>118</v>
-      </c>
-      <c r="BU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>8</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ21" t="n">
-        <v>3</v>
-      </c>
-      <c r="CA21" t="n">
-        <v>11</v>
-      </c>
-      <c r="CB21" t="n">
-        <v>11</v>
-      </c>
-      <c r="CC21" t="n">
-        <v>42</v>
-      </c>
-      <c r="CD21" t="n">
-        <v>29</v>
-      </c>
-      <c r="CE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ21" t="n">
-        <v>19</v>
-      </c>
-      <c r="CK21" t="n">
+      <c r="CV21" t="n">
+        <v>17</v>
+      </c>
+      <c r="CW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ21" t="n">
+        <v>113</v>
+      </c>
+      <c r="DA21" t="n">
+        <v>12</v>
+      </c>
+      <c r="DB21" t="n">
+        <v>57.142857142857</v>
+      </c>
+      <c r="DC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF21" t="n">
+        <v>482</v>
+      </c>
+      <c r="DG21" t="n">
+        <v>363</v>
+      </c>
+      <c r="DH21" t="n">
+        <v>6</v>
+      </c>
+      <c r="DI21" t="n">
         <v>4</v>
       </c>
-      <c r="CL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR21" t="n">
-        <v>16</v>
-      </c>
-      <c r="CS21" t="n">
-        <v>10</v>
-      </c>
-      <c r="CT21" t="n">
-        <v>37</v>
-      </c>
-      <c r="CU21" t="n">
-        <v>61</v>
-      </c>
-      <c r="CV21" t="n">
-        <v>25</v>
-      </c>
-      <c r="CW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ21" t="n">
-        <v>62</v>
-      </c>
-      <c r="DA21" t="n">
-        <v>17</v>
-      </c>
-      <c r="DB21" t="n">
-        <v>65.384615384615</v>
-      </c>
-      <c r="DC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF21" t="n">
-        <v>384</v>
-      </c>
-      <c r="DG21" t="n">
-        <v>512</v>
-      </c>
-      <c r="DH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI21" t="n">
-        <v>1</v>
-      </c>
       <c r="DJ21" t="n">
-        <v>2146869</v>
+        <v>2146873</v>
       </c>
       <c r="DK21" t="inlineStr">
         <is>
@@ -8148,47 +8148,47 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Aitor Paredes</t>
+          <t>Yuri Berchiche</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>959872</v>
+        <v>84531</v>
       </c>
       <c r="E22" t="n">
-        <v>6.79375</v>
+        <v>6.9095238095238</v>
       </c>
       <c r="F22" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G22" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>1359</v>
+        <v>1755</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.9181</v>
+        <v>0.3175</v>
       </c>
       <c r="L22" t="n">
-        <v>1359</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N22" t="n">
         <v>3</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -8200,13 +8200,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -8218,70 +8218,70 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.50825589</v>
+        <v>1.51968415</v>
       </c>
       <c r="AB22" t="n">
-        <v>987</v>
+        <v>1408</v>
       </c>
       <c r="AC22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD22" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="AE22" t="n">
-        <v>709</v>
+        <v>817</v>
       </c>
       <c r="AF22" t="n">
-        <v>87.207872078721</v>
+        <v>86.455026455026</v>
       </c>
       <c r="AG22" t="n">
-        <v>813</v>
+        <v>945</v>
       </c>
       <c r="AH22" t="n">
-        <v>435</v>
+        <v>370</v>
       </c>
       <c r="AI22" t="n">
-        <v>274</v>
+        <v>447</v>
       </c>
       <c r="AJ22" t="n">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="AK22" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="AL22" t="n">
-        <v>50</v>
+        <v>56.338028169014</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>23.076923076923</v>
       </c>
       <c r="AO22" t="n">
         <v>25</v>
       </c>
       <c r="AP22" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AR22" t="n">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AT22" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AU22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV22" t="n">
         <v>1</v>
@@ -8290,125 +8290,125 @@
         <v>0</v>
       </c>
       <c r="AX22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AZ22" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BA22" t="n">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="BB22" t="n">
-        <v>59.139784946237</v>
+        <v>60.869565217391</v>
       </c>
       <c r="BC22" t="n">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="BD22" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BE22" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="BF22" t="n">
-        <v>60.46511627907</v>
+        <v>62.121212121212</v>
       </c>
       <c r="BG22" t="n">
-        <v>115</v>
+        <v>217</v>
       </c>
       <c r="BH22" t="n">
         <v>17</v>
       </c>
       <c r="BI22" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="BJ22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK22" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>5</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>24</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>145.1</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>21</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>8</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>3</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>11</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>12</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>47</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>32</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>20</v>
+      </c>
+      <c r="CK22" t="n">
         <v>4</v>
       </c>
-      <c r="BL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>3</v>
-      </c>
-      <c r="BO22" t="n">
-        <v>20</v>
-      </c>
-      <c r="BP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>108.7</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>16</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>104</v>
-      </c>
-      <c r="BU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>5</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>8</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>2</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC22" t="n">
-        <v>65</v>
-      </c>
-      <c r="CD22" t="n">
-        <v>36</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>14</v>
-      </c>
-      <c r="CK22" t="n">
-        <v>6</v>
-      </c>
       <c r="CL22" t="n">
         <v>0</v>
       </c>
@@ -8428,19 +8428,19 @@
         <v>0</v>
       </c>
       <c r="CR22" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="CS22" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="CT22" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="CU22" t="n">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="CV22" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="CW22" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="DA22" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="DB22" t="n">
-        <v>60</v>
+        <v>65.51724137930999</v>
       </c>
       <c r="DC22" t="n">
         <v>0</v>
@@ -8470,19 +8470,19 @@
         <v>0</v>
       </c>
       <c r="DF22" t="n">
-        <v>462</v>
+        <v>404</v>
       </c>
       <c r="DG22" t="n">
-        <v>351</v>
+        <v>541</v>
       </c>
       <c r="DH22" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="DI22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="DJ22" t="n">
-        <v>2146873</v>
+        <v>2146869</v>
       </c>
       <c r="DK22" t="inlineStr">
         <is>
@@ -8511,16 +8511,16 @@
         <v>910267</v>
       </c>
       <c r="E23" t="n">
-        <v>6.7157894736842</v>
+        <v>6.735</v>
       </c>
       <c r="F23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G23" t="n">
         <v>12</v>
       </c>
       <c r="H23" t="n">
-        <v>1247</v>
+        <v>1271</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -8577,64 +8577,64 @@
         <v>1</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.10272767</v>
+        <v>1.14140867</v>
       </c>
       <c r="AB23" t="n">
-        <v>852</v>
+        <v>879</v>
       </c>
       <c r="AC23" t="n">
         <v>3</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE23" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="AF23" t="n">
-        <v>83.72591006424</v>
+        <v>83.96624472573799</v>
       </c>
       <c r="AG23" t="n">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="AH23" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AI23" t="n">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="AJ23" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AK23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL23" t="n">
-        <v>48.387096774194</v>
+        <v>50</v>
       </c>
       <c r="AM23" t="n">
         <v>15</v>
       </c>
       <c r="AN23" t="n">
-        <v>22.388059701493</v>
+        <v>22.058823529412</v>
       </c>
       <c r="AO23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ23" t="n">
         <v>4</v>
       </c>
       <c r="AR23" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AS23" t="n">
         <v>5</v>
       </c>
       <c r="AT23" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="AU23" t="n">
         <v>2</v>
@@ -8652,28 +8652,28 @@
         <v>12</v>
       </c>
       <c r="AZ23" t="n">
-        <v>57.142857142857</v>
+        <v>54.545454545455</v>
       </c>
       <c r="BA23" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="BB23" t="n">
-        <v>57.731958762887</v>
+        <v>58.252427184466</v>
       </c>
       <c r="BC23" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BD23" t="n">
-        <v>50.769230769231</v>
+        <v>50.724637681159</v>
       </c>
       <c r="BE23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BF23" t="n">
-        <v>71.875</v>
+        <v>73.529411764706</v>
       </c>
       <c r="BG23" t="n">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="BH23" t="n">
         <v>16</v>
@@ -8703,10 +8703,10 @@
         <v>0</v>
       </c>
       <c r="BQ23" t="n">
-        <v>127.6</v>
+        <v>134.7</v>
       </c>
       <c r="BR23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS23" t="n">
         <v>1</v>
@@ -8736,13 +8736,13 @@
         <v>1</v>
       </c>
       <c r="CB23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CC23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CD23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CE23" t="n">
         <v>0</v>
@@ -8784,16 +8784,16 @@
         <v>0</v>
       </c>
       <c r="CR23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CS23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CT23" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CU23" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="CV23" t="n">
         <v>9</v>
@@ -8808,13 +8808,13 @@
         <v>0</v>
       </c>
       <c r="CZ23" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="DA23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="DB23" t="n">
-        <v>64.705882352941</v>
+        <v>68.421052631579</v>
       </c>
       <c r="DC23" t="n">
         <v>0</v>
@@ -8826,10 +8826,10 @@
         <v>0</v>
       </c>
       <c r="DF23" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="DG23" t="n">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="DH23" t="n">
         <v>0</v>
@@ -8867,16 +8867,16 @@
         <v>866810</v>
       </c>
       <c r="E24" t="n">
-        <v>6.5416666666667</v>
+        <v>6.5538461538462</v>
       </c>
       <c r="F24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H24" t="n">
-        <v>599</v>
+        <v>665</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -8933,64 +8933,64 @@
         <v>1</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.49991275</v>
+        <v>0.56463675</v>
       </c>
       <c r="AB24" t="n">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="AF24" t="n">
-        <v>86.153846153846</v>
+        <v>85.614035087719</v>
       </c>
       <c r="AG24" t="n">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="AH24" t="n">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="AI24" t="n">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="AJ24" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AK24" t="n">
         <v>4</v>
       </c>
       <c r="AL24" t="n">
-        <v>36.363636363636</v>
+        <v>33.333333333333</v>
       </c>
       <c r="AM24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO24" t="n">
         <v>5</v>
       </c>
-      <c r="AN24" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>3</v>
-      </c>
       <c r="AP24" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AQ24" t="n">
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AS24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT24" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>0</v>
       </c>
       <c r="AY24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AZ24" t="n">
-        <v>50</v>
+        <v>63.636363636364</v>
       </c>
       <c r="BA24" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="BB24" t="n">
-        <v>52.380952380952</v>
+        <v>52.702702702703</v>
       </c>
       <c r="BC24" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="BD24" t="n">
-        <v>48.979591836735</v>
+        <v>51.724137931034</v>
       </c>
       <c r="BE24" t="n">
         <v>9</v>
       </c>
       <c r="BF24" t="n">
-        <v>64.28571428571399</v>
+        <v>56.25</v>
       </c>
       <c r="BG24" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="BH24" t="n">
         <v>7</v>
@@ -9053,22 +9053,22 @@
         <v>1</v>
       </c>
       <c r="BO24" t="n">
+        <v>14</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="BR24" t="n">
         <v>13</v>
       </c>
-      <c r="BP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ24" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="BR24" t="n">
-        <v>12</v>
-      </c>
       <c r="BS24" t="n">
         <v>1</v>
       </c>
       <c r="BT24" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="BU24" t="n">
         <v>0</v>
@@ -9092,10 +9092,10 @@
         <v>3</v>
       </c>
       <c r="CB24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CC24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CD24" t="n">
         <v>3</v>
@@ -9116,7 +9116,7 @@
         <v>0</v>
       </c>
       <c r="CJ24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CK24" t="n">
         <v>3</v>
@@ -9140,20 +9140,20 @@
         <v>0</v>
       </c>
       <c r="CR24" t="n">
+        <v>8</v>
+      </c>
+      <c r="CS24" t="n">
+        <v>11</v>
+      </c>
+      <c r="CT24" t="n">
+        <v>25</v>
+      </c>
+      <c r="CU24" t="n">
+        <v>35</v>
+      </c>
+      <c r="CV24" t="n">
         <v>7</v>
       </c>
-      <c r="CS24" t="n">
-        <v>8</v>
-      </c>
-      <c r="CT24" t="n">
-        <v>20</v>
-      </c>
-      <c r="CU24" t="n">
-        <v>30</v>
-      </c>
-      <c r="CV24" t="n">
-        <v>5</v>
-      </c>
       <c r="CW24" t="n">
         <v>0</v>
       </c>
@@ -9164,13 +9164,13 @@
         <v>0</v>
       </c>
       <c r="CZ24" t="n">
+        <v>12</v>
+      </c>
+      <c r="DA24" t="n">
         <v>11</v>
       </c>
-      <c r="DA24" t="n">
-        <v>9</v>
-      </c>
       <c r="DB24" t="n">
-        <v>69.230769230769</v>
+        <v>68.75</v>
       </c>
       <c r="DC24" t="n">
         <v>0</v>
@@ -9182,10 +9182,10 @@
         <v>0</v>
       </c>
       <c r="DF24" t="n">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="DG24" t="n">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="DH24" t="n">
         <v>0</v>
@@ -9579,16 +9579,16 @@
         <v>797291</v>
       </c>
       <c r="E26" t="n">
-        <v>7.0260869565217</v>
+        <v>6.9833333333333</v>
       </c>
       <c r="F26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H26" t="n">
-        <v>2070</v>
+        <v>2160</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -9643,10 +9643,10 @@
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.06959779000000001</v>
+        <v>0.0706104</v>
       </c>
       <c r="AB26" t="n">
-        <v>924</v>
+        <v>963</v>
       </c>
       <c r="AC26" t="n">
         <v>0</v>
@@ -9655,28 +9655,28 @@
         <v>1</v>
       </c>
       <c r="AE26" t="n">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="AF26" t="n">
-        <v>58.789625360231</v>
+        <v>57.851239669421</v>
       </c>
       <c r="AG26" t="n">
-        <v>694</v>
+        <v>726</v>
       </c>
       <c r="AH26" t="n">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="AI26" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AJ26" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AK26" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AL26" t="n">
-        <v>33.491686460808</v>
+        <v>32.584269662921</v>
       </c>
       <c r="AM26" t="n">
         <v>0</v>
@@ -9694,7 +9694,7 @@
         <v>0</v>
       </c>
       <c r="AR26" t="n">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="AS26" t="n">
         <v>0</v>
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="BA26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB26" t="n">
         <v>100</v>
@@ -9733,13 +9733,13 @@
         <v>100</v>
       </c>
       <c r="BE26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF26" t="n">
         <v>100</v>
       </c>
       <c r="BG26" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="BH26" t="n">
         <v>0</v>
@@ -9763,22 +9763,22 @@
         <v>5</v>
       </c>
       <c r="BO26" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BP26" t="n">
         <v>1</v>
       </c>
       <c r="BQ26" t="n">
-        <v>161.6</v>
+        <v>167.6</v>
       </c>
       <c r="BR26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS26" t="n">
         <v>0</v>
       </c>
       <c r="BT26" t="n">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="BU26" t="n">
         <v>0</v>
@@ -9805,10 +9805,10 @@
         <v>0</v>
       </c>
       <c r="CC26" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="CD26" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="CE26" t="n">
         <v>0</v>
@@ -9826,7 +9826,7 @@
         <v>20</v>
       </c>
       <c r="CJ26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CK26" t="n">
         <v>9</v>
@@ -9835,13 +9835,13 @@
         <v>3</v>
       </c>
       <c r="CM26" t="n">
+        <v>44</v>
+      </c>
+      <c r="CN26" t="n">
         <v>43</v>
       </c>
-      <c r="CN26" t="n">
-        <v>42</v>
-      </c>
       <c r="CO26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CP26" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="CZ26" t="n">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="DA26" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>10</v>
       </c>
       <c r="DF26" t="n">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="DG26" t="n">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="DH26" t="n">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="DI26" t="n">
         <v>0</v>
@@ -9912,7 +9912,7 @@
         </is>
       </c>
       <c r="DL26" t="n">
-        <v>0.3823</v>
+        <v>-0.2473</v>
       </c>
     </row>
   </sheetData>
